--- a/uploads/Community construction phase.xlsx
+++ b/uploads/Community construction phase.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -152,49 +152,49 @@
     <t>State</t>
   </si>
   <si>
+    <t>Monitoring Items/ Category (1)</t>
+  </si>
+  <si>
     <t>Required action or operation (what need to be done)</t>
   </si>
   <si>
     <t>Date for compliance (timeframe, deadline)</t>
   </si>
   <si>
+    <t>Authority accountable for compliance</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contribuate in the Management  and funding of the direct environmental and social impact by tthe creation creation of Fund Commitee</t>
+  </si>
+  <si>
+    <t>State, Cam Iron and Contractors and subcontractor</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>To be done</t>
+  </si>
+  <si>
+    <t>All the Parties</t>
+  </si>
+  <si>
+    <t>Cam Iron undertakes to make a cash contribution of twenty million (20,000,000) US Dollars per year for five (5) years commencing on the Date of Entry into Force to finance the South and East Regions Plan</t>
+  </si>
+  <si>
+    <t>The State hereby agrees to hereinafter organize the Special Development Fund.  With respect to the long term funding of the development of the area impacted by the Project, the State intends to allocate thirty percent (30%) of its portion of the base charge tariff paid by Expansion Capacity users and 30% of the lease payments it receives in connection with the Mineral Terminal Site and Railway Site to fund the Special Development Fund</t>
+  </si>
+  <si>
+    <t>Not Speficfied</t>
+  </si>
+  <si>
+    <t>Not speciefied</t>
+  </si>
+  <si>
     <t>The Project Companies shall also contribute or shall cause Marketing Company to contribute to the Special Development Fund (which in addition to other uses may be used for university and technical educational purposes) an amount equal to 0.75% of the gross sales price of Mbalam Ore sold (whether it is sold as part of Blended Ore or otherwise).</t>
-  </si>
-  <si>
-    <t>Monitoring Items/ Category (1)</t>
-  </si>
-  <si>
-    <t>Authority accountable for compliance</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Contribuate in the Management  and funding of the direct environmental and social impact by tthe creation creation of Fund Commitee</t>
-  </si>
-  <si>
-    <t>State, Cam Iron and Contractors and subcontractor</t>
-  </si>
-  <si>
-    <t>Not specified</t>
-  </si>
-  <si>
-    <t>All the Parties</t>
-  </si>
-  <si>
-    <t>To be done</t>
-  </si>
-  <si>
-    <t>Cam Iron undertakes to make a cash contribution of twenty million (20,000,000) US Dollars per year for five (5) years commencing on the Date of Entry into Force to finance the South and East Regions Plan</t>
-  </si>
-  <si>
-    <t>The State hereby agrees to hereinafter organize the Special Development Fund.  With respect to the long term funding of the development of the area impacted by the Project, the State intends to allocate thirty percent (30%) of its portion of the base charge tariff paid by Expansion Capacity users and 30% of the lease payments it receives in connection with the Mineral Terminal Site and Railway Site to fund the Special Development Fund</t>
-  </si>
-  <si>
-    <t>Not Speficfied</t>
-  </si>
-  <si>
-    <t>Not speciefied</t>
   </si>
   <si>
     <t>All the duration the project</t>
@@ -341,23 +341,20 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="10"/>
-      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -375,14 +372,15 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -422,6 +420,51 @@
       <right style="thick">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thick">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
@@ -449,53 +492,8 @@
       <left style="thick">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
         <color theme="0" tint="-0.499984740745262"/>
@@ -532,85 +530,93 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -624,89 +630,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1085850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 41"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="15592425" cy="1733550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1085850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 41"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="15592425" cy="1733550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -994,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1007,323 +930,288 @@
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
+    <col min="11" max="11" width="38.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="45" customHeight="1">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+    <row r="2" spans="1:13" s="11" customFormat="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A4" s="7" t="s">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="169.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11" t="s">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="105" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="90" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12"/>
+      <c r="F8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="169.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="5" t="s">
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="121.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="16" t="s">
+    </row>
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="108" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="H10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="J10" s="26"/>
+      <c r="K10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>17</v>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="105" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="90" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="121.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="19" customFormat="1" ht="108" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="12.75"/>
-    <row r="20" ht="46.5" customHeight="1"/>
-    <row r="24" ht="76.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="30" ht="31.5" customHeight="1"/>
-    <row r="35" ht="46.5" customHeight="1"/>
-    <row r="38" ht="31.5" customHeight="1"/>
-    <row r="43" ht="46.5" customHeight="1"/>
-    <row r="45" ht="61.5" customHeight="1"/>
-    <row r="49" ht="16.5" customHeight="1"/>
-    <row r="51" ht="46.5" customHeight="1"/>
-    <row r="54" ht="16.5" customHeight="1"/>
-    <row r="58" ht="31.5" customHeight="1"/>
-    <row r="62" ht="31.5" customHeight="1"/>
-    <row r="66" ht="31.5" customHeight="1"/>
-    <row r="70" ht="31.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="84" ht="31.5" customHeight="1"/>
-    <row r="90" ht="31.5" customHeight="1"/>
-    <row r="92" ht="31.5" customHeight="1"/>
-    <row r="94" ht="31.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
-    <row r="97" ht="20.100000000000001" customHeight="1"/>
-    <row r="98" ht="20.100000000000001" customHeight="1"/>
-    <row r="99" ht="17.25" customHeight="1"/>
-    <row r="100" ht="20.100000000000001" customHeight="1"/>
-    <row r="101" ht="20.25" customHeight="1"/>
-    <row r="102" ht="18.75" customHeight="1"/>
-    <row r="103" ht="36" customHeight="1"/>
-    <row r="104" ht="28.5" customHeight="1"/>
-    <row r="105" ht="25.5" customHeight="1"/>
-    <row r="106" ht="27.75" customHeight="1"/>
-    <row r="107" ht="18" customHeight="1"/>
-    <row r="108" ht="22.5" customHeight="1"/>
-    <row r="109" ht="76.5" customHeight="1"/>
+    <row r="11" spans="1:13" s="28" customFormat="1" ht="12.75"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A6:A10"/>
@@ -1342,8 +1230,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
